--- a/P0106/09_FICHAS/N3-FD-General.xlsx
+++ b/P0106/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683A9B26-F0F7-4DA0-93B2-1342F62F94E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,13 +84,52 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>495_GT_G05_27_18MAYO2021</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/02_PRODUCTOS/21 Estudios y diseños/Diseño/Alcantarillado\495_GT_G05_27_18MAYO2021.xlsm</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ANTIOQUIA - FACULTAD INGENIERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento "495_GT_G05_27_18MAYO2021" corresponde a las memorias de cálculo del diseño del SISTEMA DE ALCANTARILLADO DEL CORREGIMIENTO COLORADO EN EL MUNICIPIO DE NECHÍ. El documento contiene el detalle de las coordenadas (X,Y,Z) de las cámaras, el diseño de los tramos de tubería, caudal de agua residual doméstico (L/s), material de la tubería, diámetro de tubería, longitud de la tubería, cota batea, pendiente de la tubería, chequeo de la velocidad, chequeo del esfuerzo cortante. En resumen del diseó, el alcantarillado del Corregimiento de Colorado en Nechí, tendrá 83 tramos, con una longitud total de tubería en PVC de 3414 m, con diámetro variable de 8", 10" y 12" a medida que aumentan los usuarios. </t>
+  </si>
+  <si>
+    <t>memoria de calculo</t>
+  </si>
+  <si>
+    <t>xlsm</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Variables: longitud de tubería de alcantarillado doméstico, coordenadas de cámaras de inspección, caudal de agua residual doméstica.</t>
+  </si>
+  <si>
+    <t>Alcantarillado, cámaras de inspección, Corregimiento de Colorado, Nechí, tubería, esfuerzo cortante, velocidad máxima, memoria de calculo, agua residdual doméstica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,12 +146,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -125,21 +179,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,41 +532,55 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
